--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1740162.346366492</v>
+        <v>1848313.439280786</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10166633.26955484</v>
+        <v>10172676.2801421</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>39.67788952565784</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7016827609170695</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>106.6672943909487</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>249.6552926511238</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>72.1671792135599</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>301.7774191013388</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>195.3686404447774</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>57.93246571658774</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>314.6263143067512</v>
       </c>
       <c r="Y8" t="n">
-        <v>126.8415226441497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4159229349407</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>27.19006412747759</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.16281301712621</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>247.5867185477173</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1813,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>139.188673966789</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>88.27810958517536</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2811815126420993</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>176.76214411214</v>
       </c>
       <c r="V28" t="n">
-        <v>176.76214411214</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>113.5413580759688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>110.247608606344</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E37" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>278.7019488598311</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>507.0302131322575</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>91.32546285654638</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>91.32546285654638</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4364,16 +4366,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1974.604648331057</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1621.835993060943</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.730426513536</v>
+        <v>1907.721221142422</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>1738.785038214515</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>1588.668398802179</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>1440.755305219786</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>1293.865357721876</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>1125.878893030154</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>825.137147448514</v>
+        <v>2310.162265116192</v>
       </c>
       <c r="W4" t="n">
-        <v>535.7199774115534</v>
+        <v>2310.162265116192</v>
       </c>
       <c r="X4" t="n">
-        <v>307.730426513536</v>
+        <v>2310.162265116192</v>
       </c>
       <c r="Y4" t="n">
-        <v>307.730426513536</v>
+        <v>2089.369685972662</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1321.266375419621</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C5" t="n">
-        <v>1321.266375419621</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D5" t="n">
         <v>1248.370234799863</v>
@@ -4562,19 +4564,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4583,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656512</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395432</v>
+        <v>2003.932591804396</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.266375419621</v>
+        <v>2003.932591804396</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1082.995141564268</v>
+        <v>640.9145283561485</v>
       </c>
       <c r="C7" t="n">
-        <v>1082.995141564268</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="D7" t="n">
-        <v>1082.995141564268</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="E7" t="n">
-        <v>1082.995141564268</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>1082.995141564268</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>2562.339328400156</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>2364.997267344825</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>2075.878929848663</v>
+        <v>1158.321249291126</v>
       </c>
       <c r="V7" t="n">
-        <v>1821.194441642776</v>
+        <v>1158.321249291126</v>
       </c>
       <c r="W7" t="n">
-        <v>1531.777271605815</v>
+        <v>868.9040792541658</v>
       </c>
       <c r="X7" t="n">
-        <v>1303.787720707798</v>
+        <v>640.9145283561485</v>
       </c>
       <c r="Y7" t="n">
-        <v>1082.995141564268</v>
+        <v>640.9145283561485</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118628</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="Y8" t="n">
-        <v>1934.208022973022</v>
+        <v>1990.953909778728</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>482.9033490193024</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>411.3114606023164</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W10" t="n">
-        <v>1141.86239179661</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X10" t="n">
-        <v>913.8728408985925</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.0802617550623</v>
+        <v>580.2476435302233</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5461,13 +5463,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
         <v>2018.514925172274</v>
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>322.7933138979686</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,10 +5752,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.04164637206</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,19 +6214,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6311,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6415,7 +6417,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V28" t="n">
         <v>2018.514925172274</v>
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>3060.83890577277</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>3658.217393399322</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>4285.815356953929</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290469</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C31" t="n">
-        <v>699.73118040114</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
         <v>549.6145409888043</v>
@@ -6646,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2332.274843099484</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2043.199616443682</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1788.515128237795</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1499.097958200834</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1271.108407302817</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.315828159287</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6740,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,19 +6779,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6956,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2438.670847218162</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>2337.686731866304</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866304</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,7 +7180,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7193,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7311,25 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,34 +7399,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1762.98966419767</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1508.305175991783</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>168.7434581780637</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.5911984019041</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>199.7516311504064</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>40.6433062151483</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>60.337363433037</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>285.9032928766021</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="V28" t="n">
-        <v>75.37549921168795</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>103.8640922513194</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E37" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>7.482525529413067</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>889329.2862192403</v>
+        <v>895865.4064704182</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
@@ -26326,19 +26328,19 @@
         <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907538</v>
@@ -26347,13 +26349,13 @@
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467443</v>
       </c>
-      <c r="D4" t="n">
-        <v>86694.40323307096</v>
-      </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-786600.2249041174</v>
+        <v>-786600.2249041175</v>
       </c>
       <c r="C6" t="n">
-        <v>328151.5586718024</v>
+        <v>328151.5586718023</v>
       </c>
       <c r="D6" t="n">
-        <v>166947.7104235896</v>
+        <v>328151.5586718025</v>
       </c>
       <c r="E6" t="n">
-        <v>110781.594697772</v>
+        <v>-71291.38511941861</v>
       </c>
       <c r="F6" t="n">
         <v>436194.0565051271</v>
       </c>
       <c r="G6" t="n">
-        <v>436194.056505127</v>
+        <v>436194.0565051271</v>
       </c>
       <c r="H6" t="n">
-        <v>436194.0565051271</v>
+        <v>436194.0565051272</v>
       </c>
       <c r="I6" t="n">
         <v>436194.0565051271</v>
       </c>
       <c r="J6" t="n">
-        <v>268588.8786951446</v>
+        <v>268588.8786951444</v>
       </c>
       <c r="K6" t="n">
+        <v>436194.0565051269</v>
+      </c>
+      <c r="L6" t="n">
+        <v>436194.0565051269</v>
+      </c>
+      <c r="M6" t="n">
+        <v>303586.7627762005</v>
+      </c>
+      <c r="N6" t="n">
+        <v>436194.0565051269</v>
+      </c>
+      <c r="O6" t="n">
         <v>436194.0565051271</v>
       </c>
-      <c r="L6" t="n">
-        <v>387900.0864969363</v>
-      </c>
-      <c r="M6" t="n">
-        <v>351139.0285696153</v>
-      </c>
-      <c r="N6" t="n">
-        <v>436194.0565051271</v>
-      </c>
-      <c r="O6" t="n">
-        <v>436194.0565051272</v>
-      </c>
       <c r="P6" t="n">
-        <v>436194.0565051275</v>
+        <v>436194.0565051269</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.584832100039</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.03202314681263</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.0505757092178</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>60.57952670767909</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>2.482350672704229</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>282.5158624071231</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>67.95368157713023</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27822,16 +27824,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>25.3800555524345</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>228.2946884046129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>55.10478637171786</v>
       </c>
       <c r="Y8" t="n">
-        <v>259.3964160119039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44.19955008327165</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>259.3329342091134</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.6314956130963</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>346.7710205055867</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32312,22 +32314,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32555,13 +32557,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,22 +33031,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33260,31 +33262,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34210,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>468.377827851028</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,10 +34453,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>466.423818815914</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34790,16 +34792,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0158803980272</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>590.9487307432803</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>373.0365088578698</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.64972152707474</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36203,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>372.0991318096486</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1848313.439280786</v>
+        <v>1844176.282030635</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>39.67788952565784</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>196.3627720719496</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>249.6552926511238</v>
+        <v>199.596221143641</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>26.61297117991809</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>301.7774191013388</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>57.93246571658774</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>286.5888679426061</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>314.6263143067512</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>104.4159229349407</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>95.05806357631816</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>247.5867185477173</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>25.7319404949734</v>
+        <v>221.6488161050624</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.188673966789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U25" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>176.76214411214</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>78.8939549765409</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>110.247608606344</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>49.34762173749063</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>24.83266606353065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218651</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0161179218651</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E2" t="n">
-        <v>918.0161179218651</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>507.0302131322575</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>91.32546285654638</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>91.32546285654638</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,46 +4336,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2239.293886510516</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1908.230999166945</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1555.462343896831</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>1181.996585635751</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L3" t="n">
-        <v>884.908532145821</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1907.721221142422</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C4" t="n">
-        <v>1738.785038214515</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D4" t="n">
-        <v>1588.668398802179</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>1440.755305219786</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>1293.865357721876</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030154</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>2310.162265116192</v>
+        <v>1434.833775484961</v>
       </c>
       <c r="W4" t="n">
-        <v>2310.162265116192</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="X4" t="n">
-        <v>2310.162265116192</v>
+        <v>917.4270545499834</v>
       </c>
       <c r="Y4" t="n">
-        <v>2089.369685972662</v>
+        <v>696.6344754064532</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.332751740275</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>918.4726736852006</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>560.2069750784501</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>560.2069750784501</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4570,13 +4570,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>2003.932591804396</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y5" t="n">
-        <v>2003.932591804396</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>482.9033490193021</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>777.6069060507739</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
         <v>2422.685363568936</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>640.9145283561485</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>471.9783454282416</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>471.9783454282416</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1158.321249291126</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.321249291126</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>868.9040792541658</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>640.9145283561485</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>640.9145283561485</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.953909778728</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664336</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2308.758267664336</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1990.953909778728</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1990.953909778728</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>482.9033490193024</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507741</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.154053606939</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>580.2476435302233</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>411.3114606023164</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>869.6648135671838</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>580.2476435302233</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>580.2476435302233</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>580.2476435302233</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.8412329032296</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1727.373486017864</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1472.688997811978</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1183.271827775017</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>955.2822768769995</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.4896977334694</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5606,13 +5606,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510508</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.043910473548</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.05435957553</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.261780432</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.390058741045</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>697.5276345711974</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>255.5942300127259</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.968678544967</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>879.1760994014371</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,13 +6952,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7031,13 +7031,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L3" t="n">
-        <v>168.7434581780637</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>186.4490126143846</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>199.7516311504064</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>186.449012614385</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.9393975111056</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>84.77391660561914</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>226.4057028288546</v>
+        <v>30.48882721876564</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.6433062151483</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U25" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>61.40075786968299</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>115.4620467826932</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>99.26785128072171</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="H2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907534</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,13 +26420,13 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
-      <c r="D4" t="n">
-        <v>133113.8635467443</v>
-      </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26435,7 +26435,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-786600.2249041175</v>
+        <v>-786600.2249041174</v>
       </c>
       <c r="C6" t="n">
-        <v>328151.5586718023</v>
+        <v>328151.5586718025</v>
       </c>
       <c r="D6" t="n">
-        <v>328151.5586718025</v>
+        <v>328151.5586718026</v>
       </c>
       <c r="E6" t="n">
-        <v>-71291.38511941861</v>
+        <v>-71638.76437377578</v>
       </c>
       <c r="F6" t="n">
-        <v>436194.0565051271</v>
+        <v>435846.6772507704</v>
       </c>
       <c r="G6" t="n">
-        <v>436194.0565051271</v>
+        <v>435846.6772507703</v>
       </c>
       <c r="H6" t="n">
-        <v>436194.0565051272</v>
+        <v>435846.6772507701</v>
       </c>
       <c r="I6" t="n">
-        <v>436194.0565051271</v>
+        <v>435846.6772507704</v>
       </c>
       <c r="J6" t="n">
-        <v>268588.8786951444</v>
+        <v>268241.4994407876</v>
       </c>
       <c r="K6" t="n">
-        <v>436194.0565051269</v>
+        <v>435846.6772507696</v>
       </c>
       <c r="L6" t="n">
-        <v>436194.0565051269</v>
+        <v>435846.67725077</v>
       </c>
       <c r="M6" t="n">
-        <v>303586.7627762005</v>
+        <v>303239.3835218434</v>
       </c>
       <c r="N6" t="n">
-        <v>436194.0565051269</v>
+        <v>435846.67725077</v>
       </c>
       <c r="O6" t="n">
-        <v>436194.0565051271</v>
+        <v>435846.6772507702</v>
       </c>
       <c r="P6" t="n">
-        <v>436194.0565051269</v>
+        <v>435846.6772507704</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.03202314681263</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>54.68247805651239</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27596,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>2.482350672704229</v>
+        <v>52.54142218018697</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>380.2630745617934</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>67.95368157713023</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>228.2946884046129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>95.34150212965568</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27909,19 +27909,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>55.10478637171786</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.19955008327165</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543357</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>346.7710205055867</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>671.2522281007818</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>468.377827851028</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
-        <v>466.423818815914</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34801,7 +34801,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>373.0365088578695</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>590.9487307432803</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>373.0365088578698</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489557</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997668</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>206.7892464195652</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>528.6559836563374</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366978</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1844176.282030635</v>
+        <v>1845936.812333421</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>196.3627720719496</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>27.47862013186538</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>199.596221143641</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>26.61297117991809</v>
+        <v>14.41370178612572</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>286.5888679426061</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>232.4107563404797</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.05806357631816</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.8253826161956294</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1815,16 +1815,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>221.6488161050624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>269.2885714699228</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>132.6315337216692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>78.8939549765409</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3319,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>49.34762173749063</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.996585635751</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,46 +4336,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926627</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2239.293886510516</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1908.230999166945</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1555.462343896831</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1181.996585635751</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="Y2" t="n">
-        <v>1181.996585635751</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380233</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694951</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425661</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>514.9860105762135</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>346.0498276483066</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
         <v>346.0498276483066</v>
@@ -4476,19 +4476,19 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1434.833775484961</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>1145.416605448001</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>917.4270545499834</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>696.6344754064532</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.435190625612</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="C5" t="n">
-        <v>918.4726736852006</v>
+        <v>1291.938431946281</v>
       </c>
       <c r="D5" t="n">
-        <v>560.2069750784501</v>
+        <v>933.6727333395304</v>
       </c>
       <c r="E5" t="n">
-        <v>560.2069750784501</v>
+        <v>547.8844807412861</v>
       </c>
       <c r="F5" t="n">
         <v>533.3251860078258</v>
@@ -4564,7 +4564,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4573,10 +4573,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4609,10 +4609,10 @@
         <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665546</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193021</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507739</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4716,16 +4716,16 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854568</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450451</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D8" t="n">
-        <v>359.3403385450451</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>304.6149732903719</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>297.6694725411684</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>286.0051263058614</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>251.5626541092259</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,43 +5208,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5360,19 +5360,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
         <v>779.6143379232838</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098242</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819173</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695815</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>516.3896878871884</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>369.499740389278</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718572</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783594</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640064</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,37 +6147,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978459</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>422.7903292978459</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>422.7903292978459</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>255.5942300127259</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7368,16 +7368,16 @@
         <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878354</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4490126143846</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>114.3555089013345</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
-        <v>138.9393975111056</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.77391660561914</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409392602</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>30.48882721876564</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.89590291932132</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24183,7 +24183,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>61.40075786968299</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>99.26785128072171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907534</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719668</v>
@@ -26435,7 +26435,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>328151.5586718025</v>
       </c>
       <c r="D6" t="n">
-        <v>328151.5586718026</v>
+        <v>328151.5586718022</v>
       </c>
       <c r="E6" t="n">
-        <v>-71638.76437377578</v>
+        <v>-71326.12304485434</v>
       </c>
       <c r="F6" t="n">
-        <v>435846.6772507704</v>
+        <v>436159.3185796919</v>
       </c>
       <c r="G6" t="n">
-        <v>435846.6772507703</v>
+        <v>436159.3185796917</v>
       </c>
       <c r="H6" t="n">
-        <v>435846.6772507701</v>
+        <v>436159.3185796913</v>
       </c>
       <c r="I6" t="n">
-        <v>435846.6772507704</v>
+        <v>436159.3185796913</v>
       </c>
       <c r="J6" t="n">
-        <v>268241.4994407876</v>
+        <v>268554.1407697092</v>
       </c>
       <c r="K6" t="n">
-        <v>435846.6772507696</v>
+        <v>436159.3185796915</v>
       </c>
       <c r="L6" t="n">
-        <v>435846.67725077</v>
+        <v>436159.3185796913</v>
       </c>
       <c r="M6" t="n">
-        <v>303239.3835218434</v>
+        <v>303552.0248507649</v>
       </c>
       <c r="N6" t="n">
-        <v>435846.67725077</v>
+        <v>436159.3185796915</v>
       </c>
       <c r="O6" t="n">
-        <v>435846.6772507702</v>
+        <v>436159.3185796911</v>
       </c>
       <c r="P6" t="n">
-        <v>435846.6772507704</v>
+        <v>436159.3185796912</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,28 +26977,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>54.68247805651239</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>342.2524805466036</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>52.54142218018697</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>380.2630745617934</v>
+        <v>392.4623439555857</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>95.34150212965568</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>68.6077962219257</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>144.2373595085328</v>
       </c>
       <c r="L12" t="n">
-        <v>246.9596973201445</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,10 +34795,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750467</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0365088578695</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35032,10 +35032,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>230.836231232189</v>
       </c>
       <c r="R6" t="n">
         <v>24.58388860977094</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>436.6197581489557</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>6.395920534173789</v>
       </c>
       <c r="L12" t="n">
-        <v>108.4053175402703</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35576,10 +35576,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010494</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36849,13 +36849,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
